--- a/AA_Management/LI_Livrables/Bilan livrables.xlsx
+++ b/AA_Management/LI_Livrables/Bilan livrables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\10_Point_Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\LI_Livrables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862768EB-E404-46D5-8990-5E9A17255143}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC99022-F8CC-465A-92C2-22B0B0B3C131}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{1322095F-D2B9-4071-ACF0-4DA5E0A36687}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12204" xr2:uid="{1322095F-D2B9-4071-ACF0-4DA5E0A36687}"/>
   </bookViews>
   <sheets>
     <sheet name="Livrables" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Chassis</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Bilan livrables en date du 10_06_2019</t>
   </si>
 </sst>
 </file>
@@ -613,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B57B6E-859E-4B27-9FFC-0DDE0D469DF1}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,67 +634,46 @@
     <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="3"/>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="14" t="s">
-        <v>8</v>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -714,9 +696,11 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -739,11 +723,9 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -766,17 +748,17 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -793,9 +775,11 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -820,13 +804,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="14"/>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -843,11 +827,9 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="14"/>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -871,10 +853,10 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -898,75 +880,77 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
+      <c r="A14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
+      <c r="B15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -990,8 +974,8 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1014,11 +998,9 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B17" s="14"/>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -1041,11 +1023,11 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="14" t="s">
-        <v>32</v>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1068,15 +1050,17 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -1093,17 +1077,15 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B20" s="14"/>
       <c r="C20" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
       <c r="E20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -1121,86 +1103,86 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
       <c r="E24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
@@ -1215,10 +1197,10 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1227,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -1242,10 +1224,10 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1254,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -1269,10 +1251,10 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1281,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -1296,36 +1278,37 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1348,77 +1331,76 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="12">
-        <v>1</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="12">
-        <v>1</v>
-      </c>
-      <c r="G32" s="12">
-        <v>0</v>
-      </c>
-      <c r="H32" s="12">
-        <v>0</v>
-      </c>
-      <c r="I32" s="12">
-        <v>0</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="15" t="s">
-        <v>21</v>
+      <c r="B33" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="12">
         <v>1</v>
@@ -1441,9 +1423,11 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="C34" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="12">
         <v>1</v>
@@ -1466,23 +1450,21 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B35" s="15"/>
       <c r="C35" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D35" s="12">
         <v>1</v>
       </c>
-      <c r="E35" s="13">
-        <v>1</v>
+      <c r="E35" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="F35" s="12">
         <v>1</v>
       </c>
       <c r="G35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="12">
         <v>0</v>
@@ -1494,22 +1476,22 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>52</v>
+      <c r="E36" s="13">
+        <v>1</v>
       </c>
       <c r="F36" s="12">
         <v>1</v>
       </c>
       <c r="G36" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="12">
         <v>0</v>
@@ -1521,10 +1503,10 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
@@ -1545,37 +1527,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="12">
+        <v>1</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="11">
-        <f>SUM(D3:D37)/32</f>
-        <v>1</v>
-      </c>
-      <c r="E39" s="11">
-        <f>SUM(E3:E37)/27</f>
-        <v>0.62962962962962965</v>
-      </c>
-      <c r="F39" s="11">
-        <f>SUM(F3:F37)/32</f>
+      <c r="D40" s="11">
+        <f>SUM(D4:D38)/32</f>
+        <v>1</v>
+      </c>
+      <c r="E40" s="11">
+        <f>SUM(E4:E38)/27</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F40" s="11">
+        <f>SUM(F4:F38)/32</f>
         <v>0.875</v>
       </c>
-      <c r="G39" s="11">
-        <f t="shared" ref="G39:I39" si="0">SUM(G3:G37)/32</f>
+      <c r="G40" s="11">
+        <f t="shared" ref="G40:I40" si="0">SUM(G4:G38)/32</f>
         <v>3.125E-2</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H40" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I40" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -1585,36 +1591,40 @@
       <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
-        <v>0</v>
-      </c>
-      <c r="L45" s="4"/>
-    </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="10">
+      <c r="A46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B18:B19"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
-  <conditionalFormatting sqref="D32:I37 D14:I21 D3:I12 D39:I39 D23:I30">
+  <conditionalFormatting sqref="D33:I38 D15:I22 D4:I13 D40:I40 D24:I31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1625,11 +1635,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L45 D3:I31" xr:uid="{EE06A76A-42E5-486D-B126-2B3913C56B33}">
-      <formula1>$A$45:$A$46</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L40:L46 D4:I32" xr:uid="{EE06A76A-42E5-486D-B126-2B3913C56B33}">
+      <formula1>$A$46:$A$47</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:I37" xr:uid="{FA0C25B9-142F-4149-9A2C-4C03FC3F989F}">
-      <formula1>$A$44:$A$46</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:I38" xr:uid="{FA0C25B9-142F-4149-9A2C-4C03FC3F989F}">
+      <formula1>$A$45:$A$47</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
